--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63572D-302A-4DBE-BC48-3CAB63733270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61D1FC-1AEA-4722-952C-7C2413075BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{D1A761FD-1DD1-4BF8-A9A2-61D528F07B89}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D1A761FD-1DD1-4BF8-A9A2-61D528F07B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>CRM</t>
   </si>
@@ -164,6 +164,18 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -173,13 +185,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -236,21 +254,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C5EF67-D116-4C50-9C34-C3564B6D92C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>326.79000000000002</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -625,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>956</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>952</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,7 +662,7 @@
       </c>
       <c r="F5" s="3">
         <f>+F3*F4</f>
-        <v>312411.24</v>
+        <v>234763.19999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -648,11 +670,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="3">
-        <f>7682+4954</f>
-        <v>12636</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
+        <f>10365+5007</f>
+        <v>15372</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -660,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="3">
-        <v>8430</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>8436</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -672,7 +694,7 @@
       </c>
       <c r="F8" s="3">
         <f>+F5-F6+F7</f>
-        <v>308205.24</v>
+        <v>227827.19999999998</v>
       </c>
     </row>
   </sheetData>
@@ -687,11 +709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BD1EB0-2F00-4F1D-A816-77B3817A1AB5}">
   <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,6 +753,18 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -749,7 +783,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>9690</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -782,7 +818,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>546</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -799,7 +837,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6">
@@ -827,17 +865,29 @@
         <v>9325</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:J5" si="1">SUM(I3:I4)</f>
+        <f t="shared" ref="I5:N5" si="1">SUM(I3:I4)</f>
         <v>0</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="K5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>10236</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -868,7 +918,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>1645</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -901,7 +953,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>597</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -946,17 +1000,29 @@
         <v>7166</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:J8" si="3">+I5-SUM(I6:I7)</f>
+        <f t="shared" ref="I8:N8" si="3">+I5-SUM(I6:I7)</f>
         <v>0</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="3"/>
+        <v>7994</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -987,7 +1053,9 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>1481</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1020,7 +1088,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>3443</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1053,7 +1123,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>734</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1086,7 +1158,9 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1131,17 +1205,29 @@
         <v>1783</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:J13" si="5">+I8-SUM(I9:I12)</f>
+        <f t="shared" ref="I13:N13" si="5">+I8-SUM(I9:I12)</f>
         <v>0</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="5"/>
+        <v>2332</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1172,7 +1258,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>-6</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1205,7 +1293,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>68</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1250,17 +1340,29 @@
         <v>1837</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:J16" si="7">+I13-I14+I15</f>
+        <f t="shared" ref="I16:N16" si="7">+I13-I14+I15</f>
         <v>0</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="7"/>
+        <v>2406</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1291,7 +1393,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>519</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1343,10 +1447,22 @@
         <f>+J16-J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" ref="K18:N18" si="9">+K16-K17</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="9"/>
+        <v>1887</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1391,23 +1507,23 @@
         <v>35</v>
       </c>
       <c r="C20" s="7" t="e">
-        <f t="shared" ref="C20:G20" si="9">+C18/C21</f>
+        <f t="shared" ref="C20:G20" si="10">+C18/C21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2994871794871794</v>
       </c>
       <c r="E20" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="7">
@@ -1415,15 +1531,21 @@
         <v>1.4823651452282158</v>
       </c>
       <c r="I20" s="7" t="e">
-        <f t="shared" ref="I20:J20" si="10">+I18/I21</f>
+        <f t="shared" ref="I20:L20" si="11">+I18/I21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="7" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9738493723849373</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1456,7 +1578,9 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>956</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1507,7 +1631,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="e">
-        <f t="shared" ref="G23:G25" si="11">+G3/C3-1</f>
+        <f t="shared" ref="G23:G25" si="12">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="8">
@@ -1515,17 +1639,29 @@
         <v>9.4678990756932313E-2</v>
       </c>
       <c r="I23" s="8" t="e">
-        <f t="shared" ref="I23:J25" si="12">+I3/E3-1</f>
+        <f t="shared" ref="I23:J25" si="13">+I3/E3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="8" t="e">
+        <f t="shared" ref="K23:K25" si="14">+K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" ref="L23:L25" si="15">+L3/H3-1</f>
+        <v>0.10565951620264724</v>
+      </c>
+      <c r="M23" s="8" t="e">
+        <f t="shared" ref="M23:M25" si="16">+M3/I3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="8" t="e">
+        <f t="shared" ref="N23:N25" si="17">+N3/J3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1548,25 +1684,37 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" ref="H24:H25" si="13">+H4/D4-1</f>
-        <v>-6.0301507537688481E-2</v>
-      </c>
-      <c r="I24" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24:H25" si="18">+H4/D4-1</f>
+        <v>-6.0301507537688481E-2</v>
+      </c>
+      <c r="I24" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J24" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="K24" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="15"/>
+        <v>-2.6737967914438499E-2</v>
+      </c>
+      <c r="M24" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1581,33 +1729,45 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="13"/>
-        <v>8.3924212484017158E-2</v>
-      </c>
-      <c r="I25" s="8" t="e">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="10" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" si="12"/>
+      <c r="H25" s="10">
+        <f t="shared" si="18"/>
+        <v>8.3924212484017158E-2</v>
+      </c>
+      <c r="I25" s="10" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="J25" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="15"/>
+        <v>9.7694369973190254E-2</v>
+      </c>
+      <c r="M25" s="10" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1626,23 +1786,23 @@
         <v>39</v>
       </c>
       <c r="C26" s="8" t="e">
-        <f t="shared" ref="C26:G26" si="14">+C8/C5</f>
+        <f t="shared" ref="C26:G26" si="19">+C8/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.75438800418458674</v>
       </c>
       <c r="E26" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="8">
@@ -1650,17 +1810,29 @@
         <v>0.76847184986595174</v>
       </c>
       <c r="I26" s="8" t="e">
-        <f t="shared" ref="I26:J26" si="15">+I8/I5</f>
+        <f t="shared" ref="I26:J26" si="20">+I8/I5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="8" t="e">
+        <f t="shared" ref="K26:N26" si="21">+K8/K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="21"/>
+        <v>0.78096912856584599</v>
+      </c>
+      <c r="M26" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1679,23 +1851,23 @@
         <v>40</v>
       </c>
       <c r="C27" s="8" t="e">
-        <f t="shared" ref="C27:G27" si="16">+C13/C5</f>
+        <f t="shared" ref="C27:G27" si="22">+C13/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.17156805765430663</v>
       </c>
       <c r="E27" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="8">
@@ -1703,17 +1875,29 @@
         <v>0.1912064343163539</v>
       </c>
       <c r="I27" s="8" t="e">
-        <f t="shared" ref="I27:J27" si="17">+I13/I5</f>
+        <f t="shared" ref="I27:J27" si="23">+I13/I5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="8" t="e">
+        <f t="shared" ref="K27:N27" si="24">+K13/K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="24"/>
+        <v>0.2278233685033216</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1732,23 +1916,23 @@
         <v>41</v>
       </c>
       <c r="C28" s="8" t="e">
-        <f t="shared" ref="C28:G28" si="18">+C17/C16</f>
+        <f t="shared" ref="C28:G28" si="25">+C17/C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.15080428954423591</v>
       </c>
       <c r="E28" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="8" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="8">
@@ -1756,17 +1940,29 @@
         <v>0.22210125204137179</v>
       </c>
       <c r="I28" s="8" t="e">
-        <f t="shared" ref="I28:J28" si="19">+I17/I16</f>
+        <f t="shared" ref="I28:J28" si="26">+I17/I16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="8" t="e">
+        <f t="shared" ref="K28:N28" si="27">+K17/K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="27"/>
+        <v>0.21571072319201995</v>
+      </c>
+      <c r="M28" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
